--- a/CEN414_Data Visualization Assignment Allocation.xlsx
+++ b/CEN414_Data Visualization Assignment Allocation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="184">
   <si>
     <t>Matricno</t>
   </si>
@@ -556,6 +556,21 @@
   </si>
   <si>
     <t>Per capita GDP at current prices</t>
+  </si>
+  <si>
+    <t>17CJ022477</t>
+  </si>
+  <si>
+    <t>18CJ024116</t>
+  </si>
+  <si>
+    <t>Annual number of live births and Crude birth rate</t>
+  </si>
+  <si>
+    <t>Age-specific fertility rates, Total fertility and Mean age at childbearing</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79:D88"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,6 +2623,34 @@
         <v>91</v>
       </c>
     </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89">
+        <v>1702801</v>
+      </c>
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CEN414_Data Visualization Assignment Allocation.xlsx
+++ b/CEN414_Data Visualization Assignment Allocation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="186">
   <si>
     <t>Matricno</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>18CJ024104</t>
+  </si>
+  <si>
+    <t>Number Days with Measurable Bright Sunshine</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,6 +2657,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CEN414_Data Visualization Assignment Allocation.xlsx
+++ b/CEN414_Data Visualization Assignment Allocation.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruyione\Documents\Covenant\Teaching Course\2021\CEN414\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omorui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFAAAAA-1399-4144-8C9A-5DE7B75557F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEN414_attendance2021-10-04" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="192">
   <si>
     <t>Matricno</t>
   </si>
@@ -577,12 +589,30 @@
   </si>
   <si>
     <t>Number Days with Measurable Bright Sunshine</t>
+  </si>
+  <si>
+    <t>ms sql 1</t>
+  </si>
+  <si>
+    <t>redis 2</t>
+  </si>
+  <si>
+    <t>osgre 3</t>
+  </si>
+  <si>
+    <t>mongo 4</t>
+  </si>
+  <si>
+    <t>mysql 5</t>
+  </si>
+  <si>
+    <t>hbase 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1382,11 +1412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1427,7 @@
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1410,8 +1440,26 @@
       <c r="D1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1424,8 +1472,11 @@
       <c r="D2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1438,8 +1489,11 @@
       <c r="D3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1452,8 +1506,11 @@
       <c r="D4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1466,8 +1523,11 @@
       <c r="D5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1480,8 +1540,11 @@
       <c r="D6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1494,8 +1557,11 @@
       <c r="D7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1508,8 +1574,12 @@
       <c r="D8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" ref="E8:E71" si="0">E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1522,8 +1592,12 @@
       <c r="D9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1536,8 +1610,12 @@
       <c r="D10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1550,8 +1628,12 @@
       <c r="D11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1564,8 +1646,12 @@
       <c r="D12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1578,8 +1664,12 @@
       <c r="D13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1592,8 +1682,12 @@
       <c r="D14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1606,8 +1700,12 @@
       <c r="D15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1620,8 +1718,12 @@
       <c r="D16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1634,8 +1736,12 @@
       <c r="D17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1648,8 +1754,12 @@
       <c r="D18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1662,8 +1772,12 @@
       <c r="D19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1676,8 +1790,12 @@
       <c r="D20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1690,8 +1808,12 @@
       <c r="D21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1704,8 +1826,12 @@
       <c r="D22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1718,8 +1844,12 @@
       <c r="D23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1732,8 +1862,12 @@
       <c r="D24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1746,8 +1880,12 @@
       <c r="D25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1760,8 +1898,12 @@
       <c r="D26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1774,8 +1916,12 @@
       <c r="D27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1788,8 +1934,12 @@
       <c r="D28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1802,8 +1952,12 @@
       <c r="D29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1816,8 +1970,12 @@
       <c r="D30" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1830,8 +1988,12 @@
       <c r="D31" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1844,8 +2006,12 @@
       <c r="D32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1858,8 +2024,12 @@
       <c r="D33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1872,8 +2042,12 @@
       <c r="D34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1886,8 +2060,12 @@
       <c r="D35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1900,8 +2078,12 @@
       <c r="D36" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1914,8 +2096,12 @@
       <c r="D37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1928,8 +2114,12 @@
       <c r="D38" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1942,8 +2132,12 @@
       <c r="D39" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1956,8 +2150,12 @@
       <c r="D40" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1970,8 +2168,12 @@
       <c r="D41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1984,8 +2186,12 @@
       <c r="D42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1998,8 +2204,12 @@
       <c r="D43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2012,8 +2222,12 @@
       <c r="D44" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2026,8 +2240,12 @@
       <c r="D45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2040,8 +2258,12 @@
       <c r="D46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2054,8 +2276,12 @@
       <c r="D47" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2068,8 +2294,12 @@
       <c r="D48" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2082,8 +2312,12 @@
       <c r="D49" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2096,8 +2330,12 @@
       <c r="D50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2110,8 +2348,12 @@
       <c r="D51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2124,8 +2366,12 @@
       <c r="D52" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2138,8 +2384,12 @@
       <c r="D53" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2152,8 +2402,12 @@
       <c r="D54" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2166,8 +2420,12 @@
       <c r="D55" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2180,8 +2438,12 @@
       <c r="D56" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2194,8 +2456,12 @@
       <c r="D57" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2208,8 +2474,12 @@
       <c r="D58" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2222,8 +2492,12 @@
       <c r="D59" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2236,8 +2510,12 @@
       <c r="D60" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2250,8 +2528,12 @@
       <c r="D61" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2264,8 +2546,12 @@
       <c r="D62" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2278,8 +2564,12 @@
       <c r="D63" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2292,8 +2582,12 @@
       <c r="D64" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2306,8 +2600,12 @@
       <c r="D65" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2320,8 +2618,12 @@
       <c r="D66" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2334,8 +2636,12 @@
       <c r="D67" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2348,8 +2654,12 @@
       <c r="D68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2362,8 +2672,12 @@
       <c r="D69" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2376,8 +2690,12 @@
       <c r="D70" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2390,8 +2708,12 @@
       <c r="D71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2404,8 +2726,12 @@
       <c r="D72" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" ref="E72:E91" si="1">E66</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2418,8 +2744,12 @@
       <c r="D73" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2432,8 +2762,12 @@
       <c r="D74" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2446,8 +2780,12 @@
       <c r="D75" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2460,8 +2798,12 @@
       <c r="D76" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2474,8 +2816,12 @@
       <c r="D77" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2488,8 +2834,12 @@
       <c r="D78" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2502,8 +2852,12 @@
       <c r="D79" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2516,8 +2870,12 @@
       <c r="D80" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2530,8 +2888,12 @@
       <c r="D81" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2544,8 +2906,12 @@
       <c r="D82" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2558,8 +2924,12 @@
       <c r="D83" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2572,8 +2942,12 @@
       <c r="D84" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2586,8 +2960,12 @@
       <c r="D85" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2600,8 +2978,12 @@
       <c r="D86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2614,8 +2996,12 @@
       <c r="D87" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2628,8 +3014,12 @@
       <c r="D88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>179</v>
       </c>
@@ -2642,8 +3032,12 @@
       <c r="D89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -2656,8 +3050,12 @@
       <c r="D90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -2666,6 +3064,10 @@
       </c>
       <c r="D91" t="s">
         <v>91</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/CEN414_Data Visualization Assignment Allocation.xlsx
+++ b/CEN414_Data Visualization Assignment Allocation.xlsx
@@ -1,37 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omorui\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruyione\Documents\Covenant\Teaching Course\2021\CEN414\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFAAAAA-1399-4144-8C9A-5DE7B75557F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="CEN414_attendance2021-10-04" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="188">
   <si>
     <t>Matricno</t>
   </si>
@@ -591,28 +579,16 @@
     <t>Number Days with Measurable Bright Sunshine</t>
   </si>
   <si>
-    <t>ms sql 1</t>
-  </si>
-  <si>
-    <t>redis 2</t>
-  </si>
-  <si>
-    <t>osgre 3</t>
-  </si>
-  <si>
-    <t>mongo 4</t>
-  </si>
-  <si>
-    <t>mysql 5</t>
-  </si>
-  <si>
-    <t>hbase 6</t>
+    <t>17CJ022494</t>
+  </si>
+  <si>
+    <t>Total Refinery Output-Energy Statistics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1412,11 +1388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E91"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1403,7 @@
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1440,26 +1416,8 @@
       <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1472,11 +1430,8 @@
       <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1489,11 +1444,8 @@
       <c r="D3" t="s">
         <v>91</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1506,11 +1458,8 @@
       <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1523,11 +1472,8 @@
       <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1540,11 +1486,8 @@
       <c r="D6" t="s">
         <v>91</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1557,11 +1500,8 @@
       <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1574,12 +1514,8 @@
       <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E71" si="0">E2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1592,12 +1528,8 @@
       <c r="D9" t="s">
         <v>91</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1610,12 +1542,8 @@
       <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1628,12 +1556,8 @@
       <c r="D11" t="s">
         <v>91</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1646,12 +1570,8 @@
       <c r="D12" t="s">
         <v>91</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1664,12 +1584,8 @@
       <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1682,12 +1598,8 @@
       <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1700,12 +1612,8 @@
       <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1718,12 +1626,8 @@
       <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1736,12 +1640,8 @@
       <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1754,12 +1654,8 @@
       <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1772,12 +1668,8 @@
       <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1790,12 +1682,8 @@
       <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1808,12 +1696,8 @@
       <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1826,12 +1710,8 @@
       <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1844,12 +1724,8 @@
       <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1862,12 +1738,8 @@
       <c r="D24" t="s">
         <v>91</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1880,12 +1752,8 @@
       <c r="D25" t="s">
         <v>91</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1898,12 +1766,8 @@
       <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1916,12 +1780,8 @@
       <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1934,12 +1794,8 @@
       <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1952,12 +1808,8 @@
       <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1970,12 +1822,8 @@
       <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1988,12 +1836,8 @@
       <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2006,12 +1850,8 @@
       <c r="D32" t="s">
         <v>91</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2024,12 +1864,8 @@
       <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2042,12 +1878,8 @@
       <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2060,12 +1892,8 @@
       <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2078,12 +1906,8 @@
       <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2096,12 +1920,8 @@
       <c r="D37" t="s">
         <v>91</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2114,12 +1934,8 @@
       <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2132,12 +1948,8 @@
       <c r="D39" t="s">
         <v>91</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2150,12 +1962,8 @@
       <c r="D40" t="s">
         <v>91</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2168,12 +1976,8 @@
       <c r="D41" t="s">
         <v>91</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2186,12 +1990,8 @@
       <c r="D42" t="s">
         <v>91</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2204,12 +2004,8 @@
       <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2222,12 +2018,8 @@
       <c r="D44" t="s">
         <v>91</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2240,12 +2032,8 @@
       <c r="D45" t="s">
         <v>91</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2258,12 +2046,8 @@
       <c r="D46" t="s">
         <v>91</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2276,12 +2060,8 @@
       <c r="D47" t="s">
         <v>91</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2294,12 +2074,8 @@
       <c r="D48" t="s">
         <v>91</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2312,12 +2088,8 @@
       <c r="D49" t="s">
         <v>91</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2330,12 +2102,8 @@
       <c r="D50" t="s">
         <v>91</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2348,12 +2116,8 @@
       <c r="D51" t="s">
         <v>91</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2366,12 +2130,8 @@
       <c r="D52" t="s">
         <v>91</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2384,12 +2144,8 @@
       <c r="D53" t="s">
         <v>91</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2402,12 +2158,8 @@
       <c r="D54" t="s">
         <v>91</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2420,12 +2172,8 @@
       <c r="D55" t="s">
         <v>91</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2438,12 +2186,8 @@
       <c r="D56" t="s">
         <v>91</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2456,12 +2200,8 @@
       <c r="D57" t="s">
         <v>91</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2474,12 +2214,8 @@
       <c r="D58" t="s">
         <v>91</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2492,12 +2228,8 @@
       <c r="D59" t="s">
         <v>91</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2510,12 +2242,8 @@
       <c r="D60" t="s">
         <v>91</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2528,12 +2256,8 @@
       <c r="D61" t="s">
         <v>91</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2546,12 +2270,8 @@
       <c r="D62" t="s">
         <v>91</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2564,12 +2284,8 @@
       <c r="D63" t="s">
         <v>91</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2582,12 +2298,8 @@
       <c r="D64" t="s">
         <v>91</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2600,12 +2312,8 @@
       <c r="D65" t="s">
         <v>91</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2618,12 +2326,8 @@
       <c r="D66" t="s">
         <v>91</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2636,12 +2340,8 @@
       <c r="D67" t="s">
         <v>91</v>
       </c>
-      <c r="E67">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2654,12 +2354,8 @@
       <c r="D68" t="s">
         <v>91</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2672,12 +2368,8 @@
       <c r="D69" t="s">
         <v>91</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2690,12 +2382,8 @@
       <c r="D70" t="s">
         <v>91</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2708,12 +2396,8 @@
       <c r="D71" t="s">
         <v>91</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2726,12 +2410,8 @@
       <c r="D72" t="s">
         <v>91</v>
       </c>
-      <c r="E72">
-        <f t="shared" ref="E72:E91" si="1">E66</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2744,12 +2424,8 @@
       <c r="D73" t="s">
         <v>91</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2762,12 +2438,8 @@
       <c r="D74" t="s">
         <v>91</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2780,12 +2452,8 @@
       <c r="D75" t="s">
         <v>91</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2798,12 +2466,8 @@
       <c r="D76" t="s">
         <v>91</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2816,12 +2480,8 @@
       <c r="D77" t="s">
         <v>91</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2834,12 +2494,8 @@
       <c r="D78" t="s">
         <v>91</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2852,12 +2508,8 @@
       <c r="D79" t="s">
         <v>91</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2870,12 +2522,8 @@
       <c r="D80" t="s">
         <v>91</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2888,12 +2536,8 @@
       <c r="D81" t="s">
         <v>91</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2906,12 +2550,8 @@
       <c r="D82" t="s">
         <v>91</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2924,12 +2564,8 @@
       <c r="D83" t="s">
         <v>91</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2942,12 +2578,8 @@
       <c r="D84" t="s">
         <v>91</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2960,12 +2592,8 @@
       <c r="D85" t="s">
         <v>91</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2978,12 +2606,8 @@
       <c r="D86" t="s">
         <v>91</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2996,12 +2620,8 @@
       <c r="D87" t="s">
         <v>91</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -3014,12 +2634,8 @@
       <c r="D88" t="s">
         <v>91</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>179</v>
       </c>
@@ -3032,12 +2648,8 @@
       <c r="D89" t="s">
         <v>91</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -3050,12 +2662,8 @@
       <c r="D90" t="s">
         <v>91</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -3065,9 +2673,13 @@
       <c r="D91" t="s">
         <v>91</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>6</v>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
